--- a/Data/procured/closed-backfill.xlsx
+++ b/Data/procured/closed-backfill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\parkrun-postcodes\Data\procured\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8076195E-7619-4824-9B46-A4D533C67743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{63B942EF-8EE4-474C-B0A3-9D670C835BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86D1C9B3-5191-4E0E-8A4E-EBC932A3E191}"/>
   </bookViews>
@@ -134,75 +134,6 @@
     <t>PE25 3HH</t>
   </si>
   <si>
-    <t>Mordern Hall</t>
-  </si>
-  <si>
-    <t>Heartrwood Forest</t>
-  </si>
-  <si>
-    <t>Caldircot</t>
-  </si>
-  <si>
-    <t>Hatfireld Forest</t>
-  </si>
-  <si>
-    <t>Frittron Lake</t>
-  </si>
-  <si>
-    <t>Littlre Stoke</t>
-  </si>
-  <si>
-    <t>Hanburry Hall</t>
-  </si>
-  <si>
-    <t>Wytharll</t>
-  </si>
-  <si>
-    <t>Bodelrwyddan Castle</t>
-  </si>
-  <si>
-    <t>Llanerlli Coast</t>
-  </si>
-  <si>
-    <t>Cambrridge</t>
-  </si>
-  <si>
-    <t>Gainsrborough</t>
-  </si>
-  <si>
-    <t>Catterrick</t>
-  </si>
-  <si>
-    <t>Inverrness</t>
-  </si>
-  <si>
-    <t>Mulbarrton</t>
-  </si>
-  <si>
-    <t>Cuerdren Valley</t>
-  </si>
-  <si>
-    <t>Yeovirl Montacute</t>
-  </si>
-  <si>
-    <t>Gibsirde</t>
-  </si>
-  <si>
-    <t>Ellenrbrook Fields</t>
-  </si>
-  <si>
-    <t>Fire rService College</t>
-  </si>
-  <si>
-    <t>Churcrhfields Farm</t>
-  </si>
-  <si>
-    <t>Mountrbatten School</t>
-  </si>
-  <si>
-    <t>Skegnress Boating Lake</t>
-  </si>
-  <si>
     <t>SO51 5SY</t>
   </si>
   <si>
@@ -230,6 +161,9 @@
     <t>IV3 8JL</t>
   </si>
   <si>
+    <t>Inverness</t>
+  </si>
+  <si>
     <t>L10 7PE</t>
   </si>
   <si>
@@ -240,6 +174,72 @@
   </si>
   <si>
     <t>SA15 4AR</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Morden Hall</t>
+  </si>
+  <si>
+    <t>Heartwood Forest</t>
+  </si>
+  <si>
+    <t>Caldicot</t>
+  </si>
+  <si>
+    <t>Hatfield Forest</t>
+  </si>
+  <si>
+    <t>Fritton Lake</t>
+  </si>
+  <si>
+    <t>Little Stoke</t>
+  </si>
+  <si>
+    <t>Hanbury Hall</t>
+  </si>
+  <si>
+    <t>Wythall</t>
+  </si>
+  <si>
+    <t>Bodelwyddan Castle</t>
+  </si>
+  <si>
+    <t>Llanelli Coast</t>
+  </si>
+  <si>
+    <t>Gainsborough</t>
+  </si>
+  <si>
+    <t>Catterick</t>
+  </si>
+  <si>
+    <t>Mulbarton</t>
+  </si>
+  <si>
+    <t>Cuerden Valley</t>
+  </si>
+  <si>
+    <t>Yeovil Montacute</t>
+  </si>
+  <si>
+    <t>Gibside</t>
+  </si>
+  <si>
+    <t>Ellenbrook Fields</t>
+  </si>
+  <si>
+    <t>Fire Service College</t>
+  </si>
+  <si>
+    <t>Churchfields Farm</t>
+  </si>
+  <si>
+    <t>Mountbatten School</t>
+  </si>
+  <si>
+    <t>Skegness Boating Lake</t>
   </si>
 </sst>
 </file>
@@ -635,11 +635,12 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -671,7 +672,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -685,7 +686,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -699,7 +700,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -713,7 +714,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -727,7 +728,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -741,7 +742,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -755,7 +756,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -769,7 +770,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -783,7 +784,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
@@ -797,150 +798,150 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>30</v>
